--- a/data/Oscar RegaladoT2-2024.xlsx
+++ b/data/Oscar RegaladoT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>85.77562921000001</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1702,6 +1704,7 @@
         <v>6.129e-05</v>
       </c>
     </row>
+    <row r="74"/>
     <row r="75">
       <c r="D75" s="6" t="inlineStr">
         <is>
@@ -1727,7 +1730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1740,6 +1743,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1747,6 +1752,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1754,6 +1760,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -2175,6 +2182,7 @@
         <v>0.00023931</v>
       </c>
     </row>
+    <row r="40"/>
     <row r="41">
       <c r="C41" s="6" t="inlineStr">
         <is>
@@ -2200,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2213,6 +2221,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -2220,6 +2230,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -2227,6 +2238,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -2375,6 +2387,7 @@
         <v>9.609e-05</v>
       </c>
     </row>
+    <row r="19"/>
     <row r="20">
       <c r="C20" s="6" t="inlineStr">
         <is>
